--- a/src/main/resources/resource/TestResource.xlsx
+++ b/src/main/resources/resource/TestResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0B9B6-1BCB-49B0-BEED-F286DCCABF53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA44D3B-9B00-473F-9AB0-7C3AE6BAF0AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1050" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="240" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,7 +372,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,35 +389,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>11111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>22222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>33333</v>
       </c>
     </row>

--- a/src/main/resources/resource/TestResource.xlsx
+++ b/src/main/resources/resource/TestResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA44D3B-9B00-473F-9AB0-7C3AE6BAF0AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6329922-8E63-4AF9-9F84-8CC13A9A97FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="240" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="1170" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>heiheihie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,35 +397,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11111</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>22222</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>33333</v>
       </c>
     </row>
